--- a/Client/ExcelConfig/Excel/LevelupDesc.xlsx
+++ b/Client/ExcelConfig/Excel/LevelupDesc.xlsx
@@ -107,15 +107,9 @@
     <t>增加离线奖励</t>
   </si>
   <si>
-    <t>落在史莱姆上时能保持较高速度</t>
-  </si>
-  <si>
     <t>减少落在地上时损失的速度</t>
   </si>
   <si>
-    <t>从史莱姆中获得更多的金钱</t>
-  </si>
-  <si>
     <t>减少冲破大门时损失的速度</t>
   </si>
   <si>
@@ -152,6 +146,14 @@
   </si>
   <si>
     <t>int</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>落在小怪上时能保持较高速度</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>从小怪中获得更多的金钱</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -520,7 +522,7 @@
   <dimension ref="A1:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="C18" sqref="C18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -542,7 +544,7 @@
         <v>4</v>
       </c>
       <c r="D1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.15">
@@ -556,7 +558,7 @@
         <v>6</v>
       </c>
       <c r="D2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.15">
@@ -570,7 +572,7 @@
         <v>7</v>
       </c>
       <c r="D3" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.15">
@@ -637,7 +639,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>28</v>
+        <v>41</v>
       </c>
       <c r="D8">
         <v>10</v>
@@ -651,7 +653,7 @@
         <v>13</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D9">
         <v>10</v>
@@ -665,7 +667,7 @@
         <v>14</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>30</v>
+        <v>42</v>
       </c>
       <c r="D10">
         <v>10</v>
@@ -679,7 +681,7 @@
         <v>15</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="D11">
         <v>10</v>
@@ -693,7 +695,7 @@
         <v>16</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="D12">
         <v>10</v>
@@ -707,7 +709,7 @@
         <v>17</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="D13">
         <v>10</v>
@@ -721,7 +723,7 @@
         <v>18</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="D14">
         <v>9</v>
@@ -735,7 +737,7 @@
         <v>19</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="D15">
         <v>9</v>
@@ -749,7 +751,7 @@
         <v>20</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D16">
         <v>10</v>
@@ -763,7 +765,7 @@
         <v>21</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D17">
         <v>10</v>
@@ -777,7 +779,7 @@
         <v>22</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D18">
         <v>10</v>
@@ -791,7 +793,7 @@
         <v>23</v>
       </c>
       <c r="C19" s="2" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D19">
         <v>10</v>
